--- a/Labs02/homework/vinamilk.xlsx
+++ b/Labs02/homework/vinamilk.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
-    <t>Q1-2016</t>
-  </si>
-  <si>
-    <t>Q2-2016</t>
-  </si>
-  <si>
-    <t>Q3-2016</t>
+    <t>Q1-2017</t>
+  </si>
+  <si>
+    <t>Q2-2017</t>
+  </si>
+  <si>
+    <t>Q3-2017</t>
   </si>
   <si>
     <t>Q4-2016</t>
